--- a/DMS/Templates/Monitor_Store_Checker_Report.xlsx
+++ b/DMS/Templates/Monitor_Store_Checker_Report.xlsx
@@ -241,6 +241,12 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -249,12 +255,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,13 +536,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2" bestFit="1" customWidth="1"/>
@@ -614,27 +617,27 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="6" t="s">

--- a/DMS/Templates/Monitor_Store_Checker_Report.xlsx
+++ b/DMS/Templates/Monitor_Store_Checker_Report.xlsx
@@ -542,7 +542,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>

--- a/DMS/Templates/Monitor_Store_Checker_Report.xlsx
+++ b/DMS/Templates/Monitor_Store_Checker_Report.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\DMS.BE\DMS\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C922F172-6863-4FAA-BCC1-8565DDA9BBAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,9 +42,6 @@
     <t>Tên nhân viên</t>
   </si>
   <si>
-    <t>Cửa hàng đi theo kế hoạch</t>
-  </si>
-  <si>
     <t>Đơn hàng</t>
   </si>
   <si>
@@ -105,12 +103,15 @@
   </si>
   <si>
     <t>{{MonitorStoreCheckers.SaleEmployees.StoreCheckings.STT}}</t>
+  </si>
+  <si>
+    <t>Đại lý đi theo kế hoạch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -535,7 +536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -545,46 +546,46 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="7" spans="1:10" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
@@ -598,27 +599,27 @@
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -632,34 +633,34 @@
     </row>
     <row r="9" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/DMS/Templates/Monitor_Store_Checker_Report.xlsx
+++ b/DMS/Templates/Monitor_Store_Checker_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C922F172-6863-4FAA-BCC1-8565DDA9BBAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E459174-3348-453B-A69F-32CDB18FC9F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>CÔNG TY CỔ PHẦN BÓNG ĐÈN PHÍCH NƯỚC RẠNG ĐÔNG</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>Đại lý đi theo kế hoạch</t>
+  </si>
+  <si>
+    <t>Khôg viếng thăm</t>
+  </si>
+  <si>
+    <t>{{MonitorStoreCheckers.SaleEmployees.StoreCheckings.Unchecking}}</t>
   </si>
 </sst>
 </file>
@@ -232,7 +238,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -256,6 +261,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,132 +548,143 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="2"/>
+    <col min="2" max="2" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="15.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E4" s="3" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E4" s="13" t="s">
         <v>7</v>
       </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D5" s="2" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="6" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A8:J8"/>
+  <mergeCells count="2">
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="E4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
